--- a/src/gatourism/data_T.xlsx
+++ b/src/gatourism/data_T.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB2B9F-8820-4820-ACA5-70E74DF08CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,7 +32,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,9 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -346,23 +359,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="J177" sqref="J177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>0</v>
       </c>
@@ -379,7 +395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -390,37 +406,37 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4">
@@ -430,17 +446,17 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5">
@@ -456,18 +472,18 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -479,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -499,8 +515,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8">
@@ -513,18 +529,18 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -539,8 +555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10">
@@ -556,41 +572,41 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -599,18 +615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -619,48 +635,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16">
@@ -670,21 +686,21 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -693,54 +709,54 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20">
@@ -756,51 +772,51 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23">
@@ -813,73 +829,73 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -890,57 +906,57 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30">
@@ -950,36 +966,36 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -987,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -999,52 +1015,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1056,11 +1072,11 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36">
@@ -1076,58 +1092,58 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1136,11 +1152,11 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40">
@@ -1153,33 +1169,33 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1190,17 +1206,17 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43">
@@ -1210,17 +1226,17 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44">
@@ -1230,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1256,11 +1272,11 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46">
@@ -1270,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1279,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1299,48 +1315,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50">
@@ -1350,36 +1366,36 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1393,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1419,8 +1435,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54">
@@ -1436,55 +1452,55 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1493,21 +1509,21 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1516,51 +1532,51 @@
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61">
@@ -1570,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1579,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1593,14 +1609,14 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63">
@@ -1619,35 +1635,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1656,11 +1672,11 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66">
@@ -1676,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1687,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1696,41 +1712,41 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1739,8 +1755,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70">
@@ -1753,38 +1769,38 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -1799,8 +1815,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73">
@@ -1813,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75">
@@ -1850,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -1859,8 +1875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76">
@@ -1876,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1896,90 +1912,90 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1987,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1999,55 +2015,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2056,15 +2072,15 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2073,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2090,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2119,12 +2135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2133,24 +2149,24 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2159,8 +2175,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91">
@@ -2170,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -2179,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2193,14 +2209,14 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>91</v>
       </c>
       <c r="B93">
@@ -2210,37 +2226,37 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>93</v>
       </c>
       <c r="B95">
@@ -2250,17 +2266,17 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>94</v>
       </c>
       <c r="B96">
@@ -2270,47 +2286,47 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2319,28 +2335,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>98</v>
       </c>
       <c r="B100">
@@ -2350,24 +2366,24 @@
         <v>1</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>99</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -2376,15 +2392,15 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2396,31 +2412,31 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>101</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104">
@@ -2433,38 +2449,38 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2476,41 +2492,41 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>106</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2519,8 +2535,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>107</v>
       </c>
       <c r="B109">
@@ -2530,17 +2546,17 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>108</v>
       </c>
       <c r="B110">
@@ -2550,17 +2566,17 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>109</v>
       </c>
       <c r="B111">
@@ -2576,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2587,30 +2603,30 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -2619,32 +2635,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>112</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -2653,21 +2669,21 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2676,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2687,27 +2703,27 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>116</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -2719,8 +2735,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>117</v>
       </c>
       <c r="B119">
@@ -2730,17 +2746,17 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>118</v>
       </c>
       <c r="B120">
@@ -2753,33 +2769,33 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2790,21 +2806,21 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2813,24 +2829,24 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2839,28 +2855,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>124</v>
       </c>
       <c r="B126">
@@ -2870,16 +2886,16 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2887,44 +2903,44 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2939,8 +2955,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>128</v>
       </c>
       <c r="B130">
@@ -2953,14 +2969,14 @@
         <v>1</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>129</v>
       </c>
       <c r="B131">
@@ -2973,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -2987,27 +3003,27 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>131</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -3016,11 +3032,11 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>132</v>
       </c>
       <c r="B134">
@@ -3030,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -3039,47 +3055,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135">
         <v>0</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>134</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3090,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3099,8 +3115,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>136</v>
       </c>
       <c r="B138">
@@ -3113,14 +3129,14 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>137</v>
       </c>
       <c r="B139">
@@ -3133,53 +3149,53 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>138</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3193,14 +3209,14 @@
         <v>1</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>141</v>
       </c>
       <c r="B143">
@@ -3210,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -3219,52 +3235,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>143</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3273,13 +3289,13 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3293,21 +3309,21 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3319,12 +3335,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3339,28 +3355,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>149</v>
       </c>
       <c r="B151">
@@ -3373,13 +3389,13 @@
         <v>1</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3393,18 +3409,18 @@
         <v>1</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3413,18 +3429,18 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3433,18 +3449,18 @@
         <v>1</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3459,8 +3475,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
         <v>154</v>
       </c>
       <c r="B156">
@@ -3470,24 +3486,24 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -3496,15 +3512,15 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -3519,8 +3535,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
         <v>157</v>
       </c>
       <c r="B159">
@@ -3533,18 +3549,18 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -3556,21 +3572,21 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3579,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3587,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -3599,38 +3615,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -3639,52 +3655,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3699,87 +3715,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
         <v>167</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>0</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3787,30 +3803,30 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
         <v>171</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -3819,18 +3835,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -3839,8 +3855,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
         <v>173</v>
       </c>
       <c r="B175">
@@ -3853,14 +3869,14 @@
         <v>1</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
         <v>174</v>
       </c>
       <c r="B176">
@@ -3879,68 +3895,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
         <v>178</v>
       </c>
       <c r="B180">
@@ -3950,17 +3966,17 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
         <v>179</v>
       </c>
       <c r="B181">
@@ -3976,21 +3992,21 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -3999,15 +4015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -4016,18 +4032,18 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
         <v>182</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -4039,35 +4055,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="1">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
         <v>183</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="1">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -4079,72 +4095,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187">
         <v>0</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
         <v>186</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4153,13 +4169,34 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>